--- a/inspection/common_io.xlsx
+++ b/inspection/common_io.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F44C715-B4DF-49A5-977F-A414B4879F59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5724"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,10 +13,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$108</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -376,7 +383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -711,22 +718,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="80" style="3" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -739,7 +746,7 @@
       </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -754,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>93</v>
       </c>
@@ -768,7 +775,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>95</v>
       </c>
@@ -782,7 +789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>96</v>
       </c>
@@ -796,7 +803,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -810,7 +817,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -824,7 +831,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -838,7 +845,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -852,7 +859,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -863,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -874,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -885,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -896,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
@@ -907,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -918,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -929,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -940,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
@@ -951,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -962,7 +969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -973,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>23</v>
       </c>
@@ -984,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -995,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1006,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1017,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1028,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1039,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1050,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -1061,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -1072,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -1083,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -1105,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1116,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -1127,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1149,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -1160,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -1182,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1193,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>38</v>
       </c>
@@ -1204,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>38</v>
       </c>
@@ -1215,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>39</v>
       </c>
@@ -1226,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>40</v>
       </c>
@@ -1237,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>40</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>41</v>
       </c>
@@ -1259,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>42</v>
       </c>
@@ -1270,7 +1277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -1281,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -1292,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>44</v>
       </c>
@@ -1303,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>44</v>
       </c>
@@ -1314,7 +1321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>45</v>
       </c>
@@ -1325,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>46</v>
       </c>
@@ -1336,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>47</v>
       </c>
@@ -1347,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>48</v>
       </c>
@@ -1358,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>49</v>
       </c>
@@ -1369,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>97</v>
       </c>
@@ -1378,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>99</v>
       </c>
@@ -1392,7 +1399,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>50</v>
       </c>
@@ -1401,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>51</v>
       </c>
@@ -1412,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>50</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>52</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>53</v>
       </c>
@@ -1445,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>54</v>
       </c>
@@ -1456,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>55</v>
       </c>
@@ -1465,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>56</v>
       </c>
@@ -1476,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>57</v>
       </c>
@@ -1487,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>58</v>
       </c>
@@ -1509,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>59</v>
       </c>
@@ -1520,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>60</v>
       </c>
@@ -1531,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>61</v>
       </c>
@@ -1542,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>62</v>
       </c>
@@ -1553,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>63</v>
       </c>
@@ -1564,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>64</v>
       </c>
@@ -1575,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>65</v>
       </c>
@@ -1586,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>66</v>
       </c>
@@ -1597,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>67</v>
       </c>
@@ -1608,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>68</v>
       </c>
@@ -1619,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>69</v>
       </c>
@@ -1630,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>70</v>
       </c>
@@ -1641,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>71</v>
       </c>
@@ -1652,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>100</v>
       </c>
@@ -1667,7 +1674,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>72</v>
       </c>
@@ -1682,7 +1689,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>73</v>
       </c>
@@ -1694,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>74</v>
       </c>
@@ -1706,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>75</v>
       </c>
@@ -1717,7 +1724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>76</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>77</v>
       </c>
@@ -1739,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>78</v>
       </c>
@@ -1750,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>79</v>
       </c>
@@ -1761,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>80</v>
       </c>
@@ -1772,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>81</v>
       </c>
@@ -1783,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>82</v>
       </c>
@@ -1794,7 +1801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>83</v>
       </c>
@@ -1805,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>84</v>
       </c>
@@ -1816,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>85</v>
       </c>
@@ -1825,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>86</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>87</v>
       </c>
@@ -1847,7 +1854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>88</v>
       </c>
@@ -1858,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>89</v>
       </c>
@@ -1869,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>90</v>
       </c>
@@ -1880,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>91</v>
       </c>
@@ -1891,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>92</v>
       </c>
@@ -1902,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>104</v>
       </c>
@@ -1923,7 +1930,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -1936,7 +1943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -1957,7 +1964,7 @@
         <v>0.93975903614457834</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>106</v>
       </c>
@@ -1970,7 +1977,7 @@
         <v>0.94230769230769229</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
